--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_0_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_0_41.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16554.83669789038</v>
+        <v>993290.2018734229</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16554.83669789038</v>
+        <v>993290.2018734229</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1111324365.843152</v>
+        <v>43901181.1690436</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9707.238034989376</v>
+        <v>913048.3542411312</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19414.47606997876</v>
+        <v>1826096.708482262</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29121.71410496813</v>
+        <v>2739145.062723394</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39841.36115968347</v>
+        <v>3597336.219088199</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50561.00821439877</v>
+        <v>4455527.375453004</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60375.46827684841</v>
+        <v>5368575.729694133</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70189.92833929806</v>
+        <v>6281624.083935261</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80004.38840174771</v>
+        <v>7194672.438176389</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90724.03545646305</v>
+        <v>8052863.594541188</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100983.2732592369</v>
+        <v>8931806.507093323</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>110797.7333216866</v>
+        <v>9844854.861334454</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>120612.1933841362</v>
+        <v>10757903.21557559</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>130426.6534465858</v>
+        <v>11670951.56981673</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>140694.6276329798</v>
+        <v>12549479.99870887</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>151414.2746876952</v>
+        <v>13407671.15507369</v>
       </c>
     </row>
   </sheetData>
